--- a/doc_testbed/Target_v13_pre-deployment-tests.xlsx
+++ b/doc_testbed/Target_v13_pre-deployment-tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Documents\GitHub\shepherd_v2_planning\doc_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA630A98-7E4D-4E32-97D1-21066256AC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399EA1A0-01F2-4A43-BF86-0D0F228DA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="0" windowWidth="19944" windowHeight="25296" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
+    <workbookView xWindow="648" yWindow="2112" windowWidth="15156" windowHeight="23088" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
   <si>
     <t>Target</t>
   </si>
@@ -153,7 +153,16 @@
     <t>0 of 5, fail</t>
   </si>
   <si>
-    <t>1 of 5, flaky</t>
+    <t>1 of 5, flaky, 
+Riotee OK</t>
+  </si>
+  <si>
+    <t>0 of 5, fail,
+Riotee OK</t>
+  </si>
+  <si>
+    <t>0 of 5, fail
+Riotee OK</t>
   </si>
 </sst>
 </file>
@@ -229,10 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -244,26 +250,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -289,6 +283,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -308,15 +317,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AD7FE81-A7F6-4917-AEFC-78F3D59AF956}" name="Table1" displayName="Table1" ref="A1:I25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I25" xr:uid="{3AD7FE81-A7F6-4917-AEFC-78F3D59AF956}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AB1111EA-1189-4670-B60E-2E04180241E7}" name="Target" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9C88A57E-F780-4CC3-BA99-046F311B4956}" name="Visual" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7195CB4D-4AF3-465C-AF5A-354CCBF97D0C}" name="Pgm1 nRF" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{2CC13D68-4199-4EB2-B005-409CEE8AEA08}" name="Pgm2 MSP" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C8A879B1-C30E-4081-82A2-091E8E4E8DB1}" name="T1 GPIO" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{903CC865-8B03-4D80-A86B-E4E0A53B7DB0}" name="T2 RF" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{4B5E2432-0988-4E75-864C-D73D05146064}" name="T3 Sleep" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{94650C81-E1B2-4E5C-8E32-27458281274E}" name="cleaned" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{4F9009E0-8056-4545-95BD-48D33DC9717D}" name="Notes" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AB1111EA-1189-4670-B60E-2E04180241E7}" name="Target" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9C88A57E-F780-4CC3-BA99-046F311B4956}" name="Visual" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7195CB4D-4AF3-465C-AF5A-354CCBF97D0C}" name="Pgm1 nRF" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2CC13D68-4199-4EB2-B005-409CEE8AEA08}" name="Pgm2 MSP" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C8A879B1-C30E-4081-82A2-091E8E4E8DB1}" name="T1 GPIO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{903CC865-8B03-4D80-A86B-E4E0A53B7DB0}" name="T2 RF" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4B5E2432-0988-4E75-864C-D73D05146064}" name="T3 Sleep" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{94650C81-E1B2-4E5C-8E32-27458281274E}" name="cleaned" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4F9009E0-8056-4545-95BD-48D33DC9717D}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,7 +634,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +680,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -698,7 +707,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -723,7 +732,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -771,7 +780,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -808,9 +817,9 @@
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -819,7 +828,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -844,7 +853,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -869,7 +878,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -894,7 +903,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -919,7 +928,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -944,7 +953,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -953,10 +962,10 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,7 +980,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -980,10 +989,10 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1007,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1023,7 +1032,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1058,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1069,7 +1078,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1104,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1115,7 +1124,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1142,7 +1151,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1167,7 +1176,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1192,7 +1201,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1217,7 +1226,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1244,7 +1253,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">

--- a/doc_testbed/Target_v13_pre-deployment-tests.xlsx
+++ b/doc_testbed/Target_v13_pre-deployment-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Documents\GitHub\shepherd_v2_planning\doc_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399EA1A0-01F2-4A43-BF86-0D0F228DA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754D7C9-BB25-419F-B15C-3F07E7731F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="648" yWindow="2112" windowWidth="15156" windowHeight="23088" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
+    <workbookView xWindow="6156" yWindow="996" windowWidth="15156" windowHeight="23088" xr2:uid="{0961F1A4-98B1-4F35-911A-F9CB780BF838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="45">
   <si>
     <t>Target</t>
   </si>
@@ -634,7 +634,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,9 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -825,7 +827,9 @@
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1075,7 +1079,9 @@
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1121,7 +1127,9 @@
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
